--- a/leveldb-nvmtable.xlsx
+++ b/leveldb-nvmtable.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="41">
   <si>
     <t>将上层0~1 level的数据写到nvm中, 2~3level的数据写到ssd中</t>
   </si>
@@ -25,76 +25,112 @@
     <t>DRAM为32MB, NVM为288MB;value:1KB</t>
   </si>
   <si>
+    <t>注意：当DRAM为32MB时， nvm大概占300MB</t>
+  </si>
+  <si>
+    <t>请求数目     负载分布</t>
+  </si>
+  <si>
+    <t>workload099</t>
+  </si>
+  <si>
+    <t>workload080</t>
+  </si>
+  <si>
+    <t>workloaduniform</t>
+  </si>
+  <si>
+    <t>100K</t>
+  </si>
+  <si>
+    <t>13.869 micros/op;   70.3 MB/s</t>
+  </si>
+  <si>
+    <t>10.879 micros/op;   89.7 MB/s</t>
+  </si>
+  <si>
+    <t>10.543 micros/op;   92.5 MB/s</t>
+  </si>
+  <si>
+    <t>500K</t>
+  </si>
+  <si>
+    <t>11.161 micros/op;   87.4 MB/s</t>
+  </si>
+  <si>
+    <t>10.018 micros/op;   97.4 MB/s</t>
+  </si>
+  <si>
+    <t>10.482 micros/op;   93.1 MB/s</t>
+  </si>
+  <si>
+    <t>1000k</t>
+  </si>
+  <si>
+    <t>DRAM为32MB, NVM为2地方MB;value: 4KB</t>
+  </si>
+  <si>
+    <t>33.947 micros/op;  113.0 MB/s</t>
+  </si>
+  <si>
+    <t>31.350 micros/op;  122.4 MB/s</t>
+  </si>
+  <si>
+    <t>27.880 micros/op;  137.6 MB/s</t>
+  </si>
+  <si>
+    <t>66.677 micros/op;   57.5 MB/s</t>
+  </si>
+  <si>
+    <t>66.798 micros/op;   57.4 MB/s</t>
+  </si>
+  <si>
+    <t>79.062 micros/op;   48.5 MB/s</t>
+  </si>
+  <si>
+    <t>DRAM为4MB, NVM为288MB;value:1KB</t>
+  </si>
+  <si>
     <t>注意：当DRAM为32MB时， nvm大概占500MB</t>
   </si>
   <si>
-    <t>请求数目     负载分布</t>
-  </si>
-  <si>
-    <t>workload099</t>
-  </si>
-  <si>
-    <t>workload080</t>
-  </si>
-  <si>
-    <t>workloaduniform</t>
-  </si>
-  <si>
-    <t>100K</t>
-  </si>
-  <si>
-    <t>13.869 micros/op;   70.3 MB/s</t>
-  </si>
-  <si>
-    <t>10.879 micros/op;   89.7 MB/s</t>
-  </si>
-  <si>
-    <t>10.543 micros/op;   92.5 MB/s</t>
-  </si>
-  <si>
-    <t>500K</t>
-  </si>
-  <si>
-    <t>11.161 micros/op;   87.4 MB/s</t>
-  </si>
-  <si>
-    <t>10.018 micros/op;   97.4 MB/s</t>
-  </si>
-  <si>
-    <t>10.482 micros/op;   93.1 MB/s</t>
-  </si>
-  <si>
-    <t>1000k</t>
-  </si>
-  <si>
-    <t>DRAM为32MB, NVM为2地方MB;value: 4KB</t>
-  </si>
-  <si>
-    <t>33.947 micros/op;  113.0 MB/s</t>
-  </si>
-  <si>
-    <t>31.350 micros/op;  122.4 MB/s</t>
-  </si>
-  <si>
-    <t>27.880 micros/op;  137.6 MB/s</t>
-  </si>
-  <si>
-    <t>66.677 micros/op;   57.5 MB/s</t>
-  </si>
-  <si>
-    <t>66.798 micros/op;   57.4 MB/s</t>
-  </si>
-  <si>
-    <t>79.062 micros/op;   48.5 MB/s</t>
-  </si>
-  <si>
-    <t>DRAM为4MB, NVM为288MB;value:1KB</t>
-  </si>
-  <si>
-    <t>注意：当DRAM为16MB时， nvm大概占500MB</t>
+    <t>11.638 micros/op;   83.8 MB/s</t>
+  </si>
+  <si>
+    <t>12.677 micros/op;   77.0 MB/s</t>
+  </si>
+  <si>
+    <t>9.979 micros/op;   97.8 MB/s</t>
+  </si>
+  <si>
+    <t>11.130 micros/op;   87.6 MB/s</t>
+  </si>
+  <si>
+    <t>9.511 micros/op;  102.6 MB/s</t>
+  </si>
+  <si>
+    <t>10.315 micros/op;   94.6 MB/s</t>
   </si>
   <si>
     <t>DRAM为4MB, NVM为2MB;value: 4KB</t>
+  </si>
+  <si>
+    <t>27.189 micros/op;  141.1 MB/s</t>
+  </si>
+  <si>
+    <t>29.328 micros/op;  130.8 MB/s</t>
+  </si>
+  <si>
+    <t>26.347 micros/op;  145.6 MB/s</t>
+  </si>
+  <si>
+    <t>57.376 micros/op;   66.9 MB/s</t>
+  </si>
+  <si>
+    <t>71.810 micros/op;   53.4 MB/s</t>
+  </si>
+  <si>
+    <t>80.213 micros/op;   47.8 MB/s</t>
   </si>
   <si>
     <t>注意：当DRAM为4MB时， nvm大概占308MB</t>
@@ -108,9 +144,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -160,6 +196,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -175,14 +218,46 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,38 +272,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,10 +287,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -265,39 +309,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,175 +360,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,7 +647,51 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -661,197 +741,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1279,8 +1315,8 @@
   <sheetPr/>
   <dimension ref="B1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1465,17 +1501,29 @@
       <c r="B17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="30"/>
+      <c r="C17" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="30"/>
+      <c r="C18" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="6" t="s">
@@ -1495,7 +1543,7 @@
       <c r="B21" s="9"/>
       <c r="C21" s="16"/>
       <c r="D21" s="21" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E21" s="30"/>
     </row>
@@ -1517,17 +1565,29 @@
       <c r="B23" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="32"/>
+      <c r="C23" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="32"/>
+      <c r="C24" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="25" ht="14.25" spans="2:5">
       <c r="B25" s="13" t="s">
@@ -1566,7 +1626,7 @@
         <v>24</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" ht="45.25" customHeight="1" spans="2:5">
@@ -1617,7 +1677,7 @@
       <c r="B35" s="9"/>
       <c r="C35" s="7"/>
       <c r="D35" s="26" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E35" s="30"/>
     </row>

--- a/leveldb-nvmtable.xlsx
+++ b/leveldb-nvmtable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20070" windowHeight="9270"/>
+    <workbookView windowWidth="20070" windowHeight="9930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
   <si>
     <t>将上层0~1 level的数据写到nvm中, 2~3level的数据写到ssd中</t>
   </si>
@@ -22,10 +22,10 @@
     <t>levedb-nvmtable</t>
   </si>
   <si>
-    <t>DRAM为32MB, NVM为288MB;value:1KB</t>
-  </si>
-  <si>
-    <t>注意：当DRAM为32MB时， nvm大概占300MB</t>
+    <t>DRAM为4MB, NVM为288MB;value:1KB</t>
+  </si>
+  <si>
+    <t>注意：当DRAM为32MB时， nvm大概占500MB</t>
   </si>
   <si>
     <t>请求数目     负载分布</t>
@@ -43,94 +43,61 @@
     <t>100K</t>
   </si>
   <si>
-    <t>13.869 micros/op;   70.3 MB/s</t>
-  </si>
-  <si>
-    <t>10.879 micros/op;   89.7 MB/s</t>
-  </si>
-  <si>
-    <t>10.543 micros/op;   92.5 MB/s</t>
+    <t>（1）12.080 micros/op;   80.8 MB/s
+（2） 9.582 micros/op;  101.8 MB/s</t>
+  </si>
+  <si>
+    <t>（1）9.355 micros/op;  104.3 MB/s
+（2） 9.709 micros/op;  100.5 MB/s</t>
+  </si>
+  <si>
+    <t>（1）9.194 micros/op;  106.1 MB/s
+（2）9.305 micros/op;  104.8 MB/s</t>
   </si>
   <si>
     <t>500K</t>
   </si>
   <si>
-    <t>11.161 micros/op;   87.4 MB/s</t>
-  </si>
-  <si>
-    <t>10.018 micros/op;   97.4 MB/s</t>
-  </si>
-  <si>
-    <t>10.482 micros/op;   93.1 MB/s</t>
+    <t>（1）10.143 micros/op;   96.2 MB/s
+（2）10.090 micros/op;   96.7 MB/s</t>
+  </si>
+  <si>
+    <t>（1） 9.416 micros/op;  103.6 MB/s
+（2）10.304 micros/op;   94.7 MB/s</t>
+  </si>
+  <si>
+    <t>（1）9.978 micros/op;   97.8 MB/s
+（2）11.184 micros/op;   87.2 MB/s</t>
   </si>
   <si>
     <t>1000k</t>
   </si>
   <si>
-    <t>DRAM为32MB, NVM为2地方MB;value: 4KB</t>
-  </si>
-  <si>
-    <t>33.947 micros/op;  113.0 MB/s</t>
-  </si>
-  <si>
-    <t>31.350 micros/op;  122.4 MB/s</t>
-  </si>
-  <si>
-    <t>27.880 micros/op;  137.6 MB/s</t>
-  </si>
-  <si>
-    <t>66.677 micros/op;   57.5 MB/s</t>
-  </si>
-  <si>
-    <t>66.798 micros/op;   57.4 MB/s</t>
-  </si>
-  <si>
-    <t>79.062 micros/op;   48.5 MB/s</t>
-  </si>
-  <si>
-    <t>DRAM为4MB, NVM为288MB;value:1KB</t>
-  </si>
-  <si>
-    <t>注意：当DRAM为32MB时， nvm大概占500MB</t>
-  </si>
-  <si>
-    <t>11.638 micros/op;   83.8 MB/s</t>
-  </si>
-  <si>
-    <t>12.677 micros/op;   77.0 MB/s</t>
-  </si>
-  <si>
-    <t>9.979 micros/op;   97.8 MB/s</t>
-  </si>
-  <si>
-    <t>11.130 micros/op;   87.6 MB/s</t>
-  </si>
-  <si>
-    <t>9.511 micros/op;  102.6 MB/s</t>
-  </si>
-  <si>
-    <t>10.315 micros/op;   94.6 MB/s</t>
-  </si>
-  <si>
     <t>DRAM为4MB, NVM为2MB;value: 4KB</t>
   </si>
   <si>
-    <t>27.189 micros/op;  141.1 MB/s</t>
-  </si>
-  <si>
-    <t>29.328 micros/op;  130.8 MB/s</t>
-  </si>
-  <si>
-    <t>26.347 micros/op;  145.6 MB/s</t>
-  </si>
-  <si>
-    <t>57.376 micros/op;   66.9 MB/s</t>
-  </si>
-  <si>
-    <t>71.810 micros/op;   53.4 MB/s</t>
-  </si>
-  <si>
-    <t>80.213 micros/op;   47.8 MB/s</t>
+    <t>（1）28.738 micros/op;  133.5 MB/s
+（2）27.183 micros/op;  141.1 MB/s</t>
+  </si>
+  <si>
+    <t>（1）26.851 micros/op;  142.9 MB/s
+（2）26.461 micros/op;  145.0 MB/s</t>
+  </si>
+  <si>
+    <t>（1）26.534 micros/op;  144.6 MB/s
+（2）28.553 micros/op;  134.4 MB/s</t>
+  </si>
+  <si>
+    <t>（1）47.625 micros/op;   80.6 MB/s
+（2）51.657 micros/op;   74.3 MB/s</t>
+  </si>
+  <si>
+    <t>（1）46.679 micros/op;   82.2 MB/s
+（2）48.742 micros/op;   78.7 MB/s</t>
+  </si>
+  <si>
+    <t>（1）60.702 micros/op;   63.2 MB/s
+（2）59.961 micros/op;   64.0 MB/s</t>
   </si>
   <si>
     <t>注意：当DRAM为4MB时， nvm大概占308MB</t>
@@ -144,15 +111,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -187,32 +162,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -249,15 +224,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,8 +238,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,47 +262,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,31 +327,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,13 +471,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,115 +483,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,35 +526,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border diagonalDown="1">
@@ -601,6 +539,35 @@
         <color auto="1"/>
       </diagonal>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
     <border diagonalDown="1">
       <left style="medium">
         <color auto="1"/>
@@ -649,6 +616,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -668,11 +644,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -726,159 +708,144 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -895,22 +862,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -919,79 +922,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1313,411 +1280,276 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:E39"/>
+  <dimension ref="B1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="26.125" customWidth="1"/>
-    <col min="3" max="3" width="31.625" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
-    <col min="5" max="5" width="39.625" customWidth="1"/>
+    <col min="1" max="1" width="13.625" customWidth="1"/>
+    <col min="2" max="2" width="23.25" customWidth="1"/>
+    <col min="3" max="3" width="35.375" customWidth="1"/>
+    <col min="4" max="4" width="41" customWidth="1"/>
+    <col min="5" max="5" width="43.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25"/>
+    <row r="1" ht="14.25" spans="2:5">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="1"/>
+    </row>
     <row r="2" ht="40.5" spans="2:5">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="26" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="45.25" customHeight="1" spans="2:5">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="27" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="6" t="s">
+    <row r="4" ht="40.5" customHeight="1" spans="2:5">
+      <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="28" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="6" t="s">
+    <row r="5" ht="40.5" customHeight="1" spans="2:5">
+      <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="28" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="30"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="29"/>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="9"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="30"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="29"/>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="9"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="10" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="30"/>
+      <c r="E8" s="29"/>
     </row>
     <row r="9" ht="45.5" customHeight="1" spans="2:5">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="30" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="6" t="s">
+    <row r="10" ht="40.5" customHeight="1" spans="2:5">
+      <c r="B10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="6" t="s">
+    <row r="11" ht="40.5" customHeight="1" spans="2:5">
+      <c r="B11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="31" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="2:5">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="33"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="32"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="15"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" ht="14.25" spans="2:5">
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="16"/>
-    </row>
-    <row r="15" ht="40.5" spans="2:5">
-      <c r="B15" s="1" t="s">
+      <c r="B13" s="1"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" ht="14.25" spans="2:5">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" ht="40.5" spans="2:5">
+      <c r="B16" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="28" t="s">
+    </row>
+    <row r="17" ht="45.25" customHeight="1" spans="2:5">
+      <c r="B17" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="29"/>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="29"/>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="10"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="29"/>
+    </row>
+    <row r="22" ht="25.5" customHeight="1" spans="2:5">
+      <c r="B22" s="10"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="22" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" ht="45.25" customHeight="1" spans="2:5">
-      <c r="B16" s="18" t="s">
+      <c r="E22" s="29"/>
+    </row>
+    <row r="23" ht="45.5" customHeight="1" spans="2:5">
+      <c r="B23" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C23" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D23" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="E23" s="30" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="6" t="s">
+    <row r="24" spans="2:5">
+      <c r="B24" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="6" t="s">
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="33"/>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="6" t="s">
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="33"/>
+    </row>
+    <row r="26" ht="14.25" spans="2:5">
+      <c r="B26" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="30"/>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="9"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="30"/>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="9"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="30"/>
-    </row>
-    <row r="22" ht="45.5" customHeight="1" spans="2:5">
-      <c r="B22" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" s="32" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="32" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" ht="14.25" spans="2:5">
-      <c r="B25" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="33"/>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="16"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-    </row>
-    <row r="27" spans="2:5">
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-    </row>
-    <row r="28" ht="14.25" spans="2:5">
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-    </row>
-    <row r="29" ht="40.5" spans="2:5">
-      <c r="B29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" ht="45.25" customHeight="1" spans="2:5">
-      <c r="B30" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5">
-      <c r="B31" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="30"/>
-    </row>
-    <row r="32" spans="2:5">
-      <c r="B32" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="30"/>
-    </row>
-    <row r="33" spans="2:5">
-      <c r="B33" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-    </row>
-    <row r="34" spans="2:5">
-      <c r="B34" s="9"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="30"/>
-    </row>
-    <row r="35" ht="25.5" customHeight="1" spans="2:5">
-      <c r="B35" s="9"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E35" s="30"/>
-    </row>
-    <row r="36" ht="45.5" customHeight="1" spans="2:5">
-      <c r="B36" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" s="31" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5">
-      <c r="B37" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="32"/>
-    </row>
-    <row r="38" spans="2:5">
-      <c r="B38" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="32"/>
-    </row>
-    <row r="39" ht="14.25" spans="2:5">
-      <c r="B39" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="33"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/leveldb-nvmtable.xlsx
+++ b/leveldb-nvmtable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20070" windowHeight="9930"/>
+    <workbookView windowWidth="20070" windowHeight="9270"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
   <si>
     <t>将上层0~1 level的数据写到nvm中, 2~3level的数据写到ssd中</t>
   </si>
@@ -100,10 +100,55 @@
 （2）59.961 micros/op;   64.0 MB/s</t>
   </si>
   <si>
-    <t>注意：当DRAM为4MB时， nvm大概占308MB</t>
-  </si>
-  <si>
-    <t>DRAM为4MB, NVM为2地方MB;value: 4KB</t>
+    <t>value:1KB</t>
+  </si>
+  <si>
+    <t>注意：当DRAM为4MB时， nvm大概占200MB</t>
+  </si>
+  <si>
+    <t>hot1_99</t>
+  </si>
+  <si>
+    <t>hot20_80</t>
+  </si>
+  <si>
+    <t>8.463 micros/op;  115.3 MB/s</t>
+  </si>
+  <si>
+    <t>11.895 micros/op;   82.0 MB/s</t>
+  </si>
+  <si>
+    <t>12.427 micros/op;   78.5 MB/s</t>
+  </si>
+  <si>
+    <t>10.865 micros/op;   89.8 MB/s</t>
+  </si>
+  <si>
+    <t>23.303 micros/op;   41.9 MB/s</t>
+  </si>
+  <si>
+    <t>25.631 micros/op;   38.1 MB/s</t>
+  </si>
+  <si>
+    <t>value: 4KB</t>
+  </si>
+  <si>
+    <t>23.135 micros/op;  165.8 MB/s</t>
+  </si>
+  <si>
+    <t>60.642 micros/op;   63.3 MB/s</t>
+  </si>
+  <si>
+    <t>88.745 micros/op;   43.2 MB/s</t>
+  </si>
+  <si>
+    <t>29.130 micros/op;  131.7 MB/s</t>
+  </si>
+  <si>
+    <t>149.912 micros/op;   25.6 MB/s</t>
+  </si>
+  <si>
+    <t>176.816 micros/op;   21.7 MB/s</t>
   </si>
 </sst>
 </file>
@@ -111,10 +156,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -162,8 +207,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,26 +229,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -222,9 +260,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,69 +284,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,19 +360,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,67 +522,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,91 +534,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,17 +659,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -644,6 +680,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -655,26 +724,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -694,17 +743,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -713,152 +758,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -929,9 +974,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1282,8 +1324,8 @@
   <sheetPr/>
   <dimension ref="B1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1311,7 +1353,7 @@
       <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="25" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1325,7 +1367,7 @@
       <c r="D3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="26" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1339,7 +1381,7 @@
       <c r="D4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="27" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1353,7 +1395,7 @@
       <c r="D5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="27" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1363,13 +1405,13 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="29"/>
+      <c r="E6" s="28"/>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="10"/>
       <c r="C7" s="1"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="29"/>
+      <c r="E7" s="28"/>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="10"/>
@@ -1377,7 +1419,7 @@
       <c r="D8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="29"/>
+      <c r="E8" s="28"/>
     </row>
     <row r="9" ht="45.5" customHeight="1" spans="2:5">
       <c r="B9" s="12" t="s">
@@ -1389,7 +1431,7 @@
       <c r="D9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="29" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1403,7 +1445,7 @@
       <c r="D10" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="30" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1417,7 +1459,7 @@
       <c r="D11" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="30" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1427,7 +1469,7 @@
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
-      <c r="E12" s="32"/>
+      <c r="E12" s="31"/>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="1"/>
@@ -1455,10 +1497,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="26" t="s">
         <v>24</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="45.25" customHeight="1" spans="2:5">
@@ -1466,30 +1508,42 @@
         <v>4</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="26" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" ht="40.5" customHeight="1" spans="2:5">
       <c r="B18" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="29"/>
-    </row>
-    <row r="19" spans="2:5">
+      <c r="C18" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" ht="40.5" customHeight="1" spans="2:5">
       <c r="B19" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="29"/>
+      <c r="C19" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="8" t="s">
@@ -1503,45 +1557,57 @@
       <c r="B21" s="10"/>
       <c r="C21" s="19"/>
       <c r="D21" s="21"/>
-      <c r="E21" s="29"/>
+      <c r="E21" s="28"/>
     </row>
     <row r="22" ht="25.5" customHeight="1" spans="2:5">
       <c r="B22" s="10"/>
       <c r="C22" s="19"/>
       <c r="D22" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="29"/>
+        <v>34</v>
+      </c>
+      <c r="E22" s="28"/>
     </row>
     <row r="23" ht="45.5" customHeight="1" spans="2:5">
       <c r="B23" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="30" t="s">
+      <c r="C23" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="29" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="2:5">
+    <row r="24" ht="40.5" customHeight="1" spans="2:5">
       <c r="B24" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="33"/>
-    </row>
-    <row r="25" spans="2:5">
+      <c r="C24" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" ht="40.5" customHeight="1" spans="2:5">
       <c r="B25" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="33"/>
+      <c r="C25" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="26" ht="14.25" spans="2:5">
       <c r="B26" s="15" t="s">
@@ -1549,7 +1615,7 @@
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
-      <c r="E26" s="32"/>
+      <c r="E26" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
